--- a/RailsClient/uploadfiles/template/导入常州发运数据模版.xlsx
+++ b/RailsClient/uploadfiles/template/导入常州发运数据模版.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="帮助" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="工作表3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -17,33 +17,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>托盘号 </t>
-  </si>
-  <si>
-    <t>HU号</t>
-  </si>
-  <si>
-    <t>800号</t>
-  </si>
-  <si>
-    <t>物料号</t>
-  </si>
-  <si>
-    <t>LESS P/N</t>
-  </si>
-  <si>
-    <t>总数量</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>批次</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+  <si>
+    <t>唯一码</t>
+  </si>
+  <si>
+    <t>客户名</t>
+  </si>
+  <si>
+    <t>申请单号</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>产品名</t>
+  </si>
+  <si>
+    <t>发货数量</t>
+  </si>
+  <si>
+    <t>存货单位</t>
+  </si>
+  <si>
+    <t>箱数</t>
+  </si>
+  <si>
+    <t>送货地址</t>
+  </si>
+  <si>
+    <t>装运日期</t>
+  </si>
+  <si>
+    <t>要求到货日期</t>
+  </si>
+  <si>
+    <t>承运人</t>
+  </si>
+  <si>
+    <t>2016100001-2016100005</t>
+  </si>
+  <si>
+    <t>因为箱数可能不为1，所以唯一码可能是一个，或者多个，多个的话需要用  '-'  符号来间隔，如上例所示。</t>
   </si>
 </sst>
 </file>
@@ -54,7 +69,7 @@
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="文泉驿正黑"/>
       <charset val="1"/>
@@ -77,18 +92,11 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="0"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="0"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
+      <name val="文泉驿正黑"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00FF0000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -107,23 +115,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin">
-        <color rgb="003C3C3C"/>
-      </left>
-      <right style="thin">
-        <color rgb="003C3C3C"/>
-      </right>
-      <top style="thin">
-        <color rgb="003C3C3C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="003C3C3C"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -147,87 +140,22 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="常规 20" xfId="20"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="003C3C3C"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -236,48 +164,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G13" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
+      <selection activeCell="C20" activeCellId="0" pane="topLeft" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.3921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.5294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.478431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.39607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9607843137255"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.65" outlineLevel="0" r="1">
-      <c r="A1" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -296,16 +231,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
+      <selection activeCell="G12" activeCellId="0" pane="topLeft" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.8862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="2" width="11.0588235294118"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="1" s="4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="3" t="n">
+        <v>2016100006</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -324,12 +325,9 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
